--- a/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>13,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46,49%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 23,86</t>
+          <t>-1,56; 24,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 18,61</t>
+          <t>-0,04; 18,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 16,74</t>
+          <t>-3,75; 12,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 14,45</t>
+          <t>0,65; 27,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 93,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 73,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 51,35</t>
+          <t>-3,36; 90,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 45,19</t>
+          <t>-0,12; 67,6</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 40,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 142,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,37%</t>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 9,98</t>
+          <t>-3,4; 8,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,83</t>
+          <t>-4,51; 4,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 6,5</t>
+          <t>-1,34; 7,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -0,03</t>
+          <t>-4,18; 7,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 84,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 30,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 53,39</t>
+          <t>-17,11; 60,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -0,17</t>
+          <t>-26,08; 39,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 58,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-21,01; 64,81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-42,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-57,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-46,98%</t>
+          <t>-52,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-27,81%</t>
+          <t>-54,92%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-45,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-40,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -1,46</t>
+          <t>-12,56; -1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -4,29</t>
+          <t>-11,28; -3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -2,94</t>
+          <t>-10,84; -2,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 2,79</t>
+          <t>-13,1; -1,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,37; -11,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,44; -35,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,01; -24,06</t>
+          <t>-74,22; -16,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,35; 33,56</t>
+          <t>-72,55; -27,33</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-63,61; -22,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-62,9; -5,65</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>30,99%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,24</t>
+          <t>3,63; 14,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 4,07</t>
+          <t>-1,34; 12,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 4,37</t>
+          <t>-7,63; 6,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 51,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 29,64</t>
+          <t>17,73; 103,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 23,15</t>
+          <t>-8,49; 87,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-27,72; 32,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 7,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 3,84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 4,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 4,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 46,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,84; 23,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 22,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 24,92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,06</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>30,08%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,44%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>46,49%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>10.9739448178245</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.932083298033483</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.119937126509532</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13.67318989424328</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.3220316114156799</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2806473531392624</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1100382008855145</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4914135508202299</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 24,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 18,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 12,95</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 27,92</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 90,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 67,6</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 40,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 142,43</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.737716075449937</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1929130089885037</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.67551354947876</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.113990102502955</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.03590170301098843</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.006966906069496816</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.08815330048871682</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.03690816451081996</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.44090338509241</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.89800332763025</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.18831035973976</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.84386235102633</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.9172615074377617</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6706708080866322</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.4069040276301545</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.419585780765278</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,02%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>19,55%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 8,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,51; 4,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 7,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 7,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-17,11; 60,53</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; 39,3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 58,31</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-21,01; 64,81</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.137721811712139</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.02751828233132358</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.655969394553362</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.582950269155567</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.06467306376043465</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.001813775811909095</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1801132773850034</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.09944314689486344</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,45</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-52,26%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-54,92%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-45,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-40,76%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.558604733011961</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.963253263782817</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.648220509910253</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.368190410840471</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.2213981223171283</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2751818903008966</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1018297036462648</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2255792354226227</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,56; -1,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,28; -3,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; -2,95</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; -1,16</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-74,22; -16,56</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,55; -27,33</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-63,61; -22,89</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-62,9; -5,65</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.433008277065439</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.800976202337101</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.132135273877349</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.808789255665456</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.5062067437183182</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3795136714306153</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5528697364551691</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.6107856134040736</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,82</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>56,45%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30,99%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-2,94%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-7.428382600830699</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-7.136511326704147</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.67603715815029</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.714296511421185</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.5352063824432721</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5582313579744194</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4732023481666806</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4333514482811076</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 14,06</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 12,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 6,42</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>17,73; 103,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 87,19</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-27,72; 32,96</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.54377594538379</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.42552748773762</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.0059293912485</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.42144557389418</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.752390822736844</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7279303160736199</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6491846760700725</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6477354976841071</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.867806077257577</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-3.209530592342728</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-3.164002363856556</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-1.604959922577561</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.1557341706440618</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.2941483074676964</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.2456595587763879</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.1088117702953932</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>23,73%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,47%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>5,63%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 7,34</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 3,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 4,13</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 4,69</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 46,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 23,97</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-10,47; 22,63</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 24,92</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.4376834482900799</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.07173949701062277</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.9495091891339569</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.075648327749704</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.0231194340018923</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.004038267591452167</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.04908279621761112</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1101802750741064</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.661220838283707</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.383870455007903</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.255948055557477</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.101958039492196</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.1760856773400203</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1756991509505638</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1072591910085107</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.09811835475692651</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.804318274182012</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.288903081842451</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.960099899633709</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.03967244722561</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.2877028374649863</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2028686777476479</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2212615028561738</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3689711689278866</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
